--- a/documentation/Lorenzo/3_1_Journal_Lorenzo.xlsx
+++ b/documentation/Lorenzo/3_1_Journal_Lorenzo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/lorenzo_magliani_studentfr_ch/Documents/Bureau/EMF/Documents EMF/Syntheses EMF/306/306-G3-SpeleoThink/documentation/Lorenzo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4C6AC6D-67F8-4486-8BD0-80D29EE086C0}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4C9D8E1-17D1-41BB-A135-8F52DDCF5929}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>J'ai trouvé que cette journée était un peu ennuyante, j'ai néanmoins aimé la partie de test du rover malgré les difficultés rencontrées.</t>
+  </si>
+  <si>
+    <t>Revue de la documentation mise en place le 5.12.2025</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1206,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1319,10 +1322,16 @@
       <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="29">
+        <v>46003</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" s="31"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
@@ -1358,7 +1367,7 @@
       </c>
       <c r="D18" s="9">
         <f>SUM(D13:D17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1816,7 +1825,7 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">

--- a/documentation/Lorenzo/3_1_Journal_Lorenzo.xlsx
+++ b/documentation/Lorenzo/3_1_Journal_Lorenzo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/lorenzo_magliani_studentfr_ch/Documents/Bureau/EMF/Documents EMF/Syntheses EMF/306/306-G3-SpeleoThink/documentation/Lorenzo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4C9D8E1-17D1-41BB-A135-8F52DDCF5929}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CABBA3A0-A14F-408C-BA43-6CC6768D9932}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>Revue de la documentation mise en place le 5.12.2025</t>
+  </si>
+  <si>
+    <t>Kick-off du projet</t>
+  </si>
+  <si>
+    <t>Planification et revue des tâches</t>
+  </si>
+  <si>
+    <t>Créaion de l'interface utilisateur</t>
   </si>
 </sst>
 </file>
@@ -471,6 +480,62 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -503,68 +568,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1206,7 +1215,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14:C14"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1219,89 +1228,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1314,51 +1323,63 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="14">
         <v>46003</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1367,47 +1388,47 @@
       </c>
       <c r="D18" s="9">
         <f>SUM(D13:D17)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1420,43 +1441,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1469,43 +1490,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1518,43 +1539,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="32"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1567,43 +1588,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="29"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="31"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -1616,43 +1637,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="32"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="23"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="29"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="31"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="25"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -1665,43 +1686,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="32"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="29"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="31"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -1714,43 +1735,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="28"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="29"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="31"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="25"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -1763,43 +1784,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="32"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="35"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="23"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="29"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="31"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="25"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="20"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -1812,10 +1833,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="32"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="23"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -1825,90 +1846,19 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -1920,6 +1870,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2034,15 +2055,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2255,6 +2267,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2267,14 +2288,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2293,6 +2306,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>

--- a/documentation/Lorenzo/3_1_Journal_Lorenzo.xlsx
+++ b/documentation/Lorenzo/3_1_Journal_Lorenzo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/lorenzo_magliani_studentfr_ch/Documents/Bureau/EMF/Documents EMF/Syntheses EMF/306/306-G3-SpeleoThink/documentation/Lorenzo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CABBA3A0-A14F-408C-BA43-6CC6768D9932}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70311A96-1766-456A-9A75-DE2EF8160532}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal_MAGLIANI_LORENZO!$A$5:$HI$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal_MAGLIANI_LORENZO!$B:$D,Journal_MAGLIANI_LORENZO!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal_MAGLIANI_LORENZO!$A$1:$D$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal_MAGLIANI_LORENZO!$A$1:$D$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -134,7 +134,16 @@
     <t>Planification et revue des tâches</t>
   </si>
   <si>
-    <t>Créaion de l'interface utilisateur</t>
+    <t>Création de l'interface utilisateur</t>
+  </si>
+  <si>
+    <t>Mise en place d'un projet de test des technologies avec Rover et Manette Xbox</t>
+  </si>
+  <si>
+    <t>Intégration du code pour le rover (vidéo, contrôles etc.)</t>
+  </si>
+  <si>
+    <t>J'ai rencontré un problème Majeur lors de la mise en place de l'application de test pour le rover et la manette, c'est pour cela que ça m'a pris autant de temps. Sinon dans la globalité de cette journée j'ai appris pas mal de choses et ça a été très utile pour mon développement professionnel</t>
   </si>
 </sst>
 </file>
@@ -431,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -573,6 +582,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1210,12 +1227,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971094A1-2086-4124-85CF-EAAE0115819F}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1374,40 +1391,50 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="C17" s="20"/>
-      <c r="D17" s="8"/>
+      <c r="D17" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="9">
-        <f>SUM(D13:D17)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="8"/>
+      <c r="D19" s="9">
+        <f>SUM(D13:D18)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+    </row>
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
@@ -1429,34 +1456,34 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="9">
-        <f>SUM(D20:D24)</f>
+      <c r="D26" s="9">
+        <f>SUM(D21:D25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="8"/>
+    <row r="27" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+    </row>
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
@@ -1478,34 +1505,34 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="9">
-        <f>SUM(D27:D31)</f>
+      <c r="D33" s="9">
+        <f>SUM(D28:D32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="8"/>
+    <row r="34" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="16"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+    </row>
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
@@ -1527,34 +1554,34 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="9">
-        <f>SUM(D34:D38)</f>
+      <c r="D40" s="9">
+        <f>SUM(D35:D39)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="8"/>
+    <row r="41" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
+    </row>
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
@@ -1576,34 +1603,34 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="15"/>
+      <c r="B47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="9">
-        <f>SUM(D41:D45)</f>
+      <c r="D47" s="9">
+        <f>SUM(D42:D46)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="8"/>
+    <row r="48" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="16"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
+    </row>
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
@@ -1625,34 +1652,34 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="15"/>
+      <c r="B54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="9">
-        <f>SUM(D48:D52)</f>
+      <c r="D54" s="9">
+        <f>SUM(D49:D53)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="7"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="8"/>
+    <row r="55" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="16"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
+    </row>
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
@@ -1674,34 +1701,34 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="19"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="15"/>
+      <c r="B61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="9">
-        <f>SUM(D55:D59)</f>
+      <c r="D61" s="9">
+        <f>SUM(D56:D60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="23"/>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="7"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="8"/>
+    <row r="62" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="16"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="23"/>
+    </row>
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
@@ -1723,34 +1750,34 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="19"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="15"/>
+      <c r="B68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="9">
-        <f>SUM(D62:D66)</f>
+      <c r="D68" s="9">
+        <f>SUM(D63:D67)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="7"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="8"/>
+    <row r="69" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="15"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="26"/>
+    </row>
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="15"/>
@@ -1772,34 +1799,34 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="19"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="15"/>
+      <c r="B75" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="9">
-        <f>SUM(D69:D73)</f>
+      <c r="D75" s="9">
+        <f>SUM(D70:D74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="16"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="23"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="7"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="8"/>
+    <row r="76" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="16"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="23"/>
+    </row>
+    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
@@ -1821,44 +1848,50 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="19"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="15"/>
+      <c r="B82" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="9">
-        <f>SUM(D76:D80)</f>
+      <c r="D82" s="9">
+        <f>SUM(D77:D81)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="23"/>
-    </row>
-    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="11"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="3" t="s">
+    <row r="83" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="16"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="23"/>
+    </row>
+    <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="11"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="12">
-        <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="D84" s="12">
+        <f>D11+D19+D26+D33+D40+D47+D54+D61+D68+D75+D82</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="83">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -1870,77 +1903,78 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A13:A20"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A21:A27"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A34"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="A35:A41"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A42:A48"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A49:A55"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A56:A62"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="A63:A69"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="A70:A76"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A77:A83"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:D83"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -1950,7 +1984,7 @@
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D18">
+  <conditionalFormatting sqref="D13:D19">
     <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
@@ -1958,84 +1992,84 @@
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D25">
+  <conditionalFormatting sqref="D21:D26">
     <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D32">
+  <conditionalFormatting sqref="D28:D33">
     <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D28)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D28)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D39">
+  <conditionalFormatting sqref="D35:D40">
     <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D35)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D46">
+  <conditionalFormatting sqref="D42:D47">
     <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D42)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D53">
+  <conditionalFormatting sqref="D49:D54">
     <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D60">
+  <conditionalFormatting sqref="D56:D61">
     <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D56)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62:D67">
+  <conditionalFormatting sqref="D63:D68">
     <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D63)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D63)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69:D74">
+  <conditionalFormatting sqref="D70:D75">
     <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D70)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D70)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76:D81">
+  <conditionalFormatting sqref="D77:D82">
     <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D77)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D77)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
+  <conditionalFormatting sqref="D84">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D84)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2047,8 +2081,8 @@
     <oddFooter>&amp;L&amp;8&amp;F&amp;R&amp;8Page &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="47" max="16383" man="1"/>
-    <brk id="83" max="3" man="1"/>
+    <brk id="48" max="16383" man="1"/>
+    <brk id="84" max="3" man="1"/>
   </rowBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/documentation/Lorenzo/3_1_Journal_Lorenzo.xlsx
+++ b/documentation/Lorenzo/3_1_Journal_Lorenzo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/lorenzo_magliani_studentfr_ch/Documents/Bureau/EMF/Documents EMF/Syntheses EMF/306/306-G3-SpeleoThink/documentation/Lorenzo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65047CD0-8762-4218-9F6A-5D40D564F003}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCF6CB05-C1C8-4160-89F4-6A73FF58178D}"/>
   <bookViews>
     <workbookView xWindow="30750" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>intégration de java 17 au lieu de java 1.8 dans le projet</t>
+  </si>
+  <si>
+    <t>Mise en place du contrôle du rover avec la manette</t>
+  </si>
+  <si>
+    <t>Configuration de toutes les options de la vue sur la manette</t>
+  </si>
+  <si>
+    <t>Aujourd'hui il y a eu beaucoup d'avancements et de réussites, on a réussi à mettre tout ce qu'on avait prévu en place, et même plus que ça. Je pense que cette journée s'est très très bien passée.</t>
   </si>
 </sst>
 </file>
@@ -1233,9 +1242,9 @@
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29:C29"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1497,20 +1506,28 @@
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
-      <c r="B29" s="24"/>
+      <c r="B29" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="C29" s="25"/>
-      <c r="D29" s="8"/>
+      <c r="D29" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
-      <c r="B30" s="24"/>
+      <c r="B30" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="C30" s="25"/>
-      <c r="D30" s="8"/>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -1534,12 +1551,14 @@
       </c>
       <c r="D33" s="9">
         <f>SUM(D28:D32)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="34"/>
-      <c r="B34" s="35"/>
+      <c r="B34" s="35" t="s">
+        <v>26</v>
+      </c>
       <c r="C34" s="36"/>
       <c r="D34" s="37"/>
     </row>
@@ -1894,7 +1913,7 @@
       </c>
       <c r="D84" s="12">
         <f>D11+D19+D26+D33+D40+D47+D54+D61+D68+D75+D82</f>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">

--- a/documentation/Lorenzo/3_1_Journal_Lorenzo.xlsx
+++ b/documentation/Lorenzo/3_1_Journal_Lorenzo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/lorenzo_magliani_studentfr_ch/Documents/Bureau/EMF/Documents EMF/Syntheses EMF/306/306-G3-SpeleoThink/documentation/Lorenzo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCF6CB05-C1C8-4160-89F4-6A73FF58178D}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F303AF10-C062-4921-AAD3-DDA250C3D2FA}"/>
   <bookViews>
-    <workbookView xWindow="30750" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_MAGLIANI_LORENZO" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Aujourd'hui il y a eu beaucoup d'avancements et de réussites, on a réussi à mettre tout ce qu'on avait prévu en place, et même plus que ça. Je pense que cette journée s'est très très bien passée.</t>
+  </si>
+  <si>
+    <t>Malade</t>
+  </si>
+  <si>
+    <t>Cette semaine là j'ai été vraiment malade et je n'ai pas réussi à travailler et progresser dans le projet</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -501,6 +507,70 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -533,10 +603,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -545,64 +611,28 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1244,7 +1274,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34:D34"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1257,87 +1287,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="36">
         <v>45996</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1350,77 +1380,77 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="14">
         <v>46003</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1433,51 +1463,51 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="26" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
+      <c r="A21" s="14">
         <v>46009</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="31"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="7">
         <v>3.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1490,59 +1520,59 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="26" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="29">
+      <c r="A28" s="14">
         <v>46010</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="31"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="24" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="24" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1555,45 +1585,49 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="34"/>
-      <c r="B34" s="35" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="37"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="29"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="A35" s="14">
+        <v>46030</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="40"/>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="42"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="42"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
@@ -1606,43 +1640,49 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="34"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="37"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="29"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="31"/>
+      <c r="A42" s="14">
+        <v>46031</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="40"/>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="42"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="42"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="44"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="2" t="s">
         <v>6</v>
       </c>
@@ -1655,43 +1695,45 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="34"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="37"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="29"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="2" t="s">
         <v>6</v>
       </c>
@@ -1704,43 +1746,43 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="34"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="37"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
     </row>
     <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="29"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="31"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="25"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="20"/>
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="2" t="s">
         <v>6</v>
       </c>
@@ -1753,43 +1795,43 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="34"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="37"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="29"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="31"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="2" t="s">
         <v>6</v>
       </c>
@@ -1802,43 +1844,43 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="28"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="26"/>
     </row>
     <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="29"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="31"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="25"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="25"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="20"/>
       <c r="D74" s="8"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="2" t="s">
         <v>6</v>
       </c>
@@ -1851,43 +1893,43 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="34"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="37"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="23"/>
     </row>
     <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="29"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="31"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="20"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="25"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="20"/>
       <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
+      <c r="A82" s="15"/>
       <c r="B82" s="2" t="s">
         <v>6</v>
       </c>
@@ -1900,10 +1942,10 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="34"/>
-      <c r="B83" s="35"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="37"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="23"/>
     </row>
     <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11"/>
@@ -1917,87 +1959,15 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="38" t="s">
+      <c r="A85" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B18:C18"/>
+  <mergeCells count="75">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -2009,6 +1979,70 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B35:C39"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B42:C46"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:D83"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2123,15 +2157,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2344,6 +2369,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2356,14 +2390,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2382,6 +2408,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>
